--- a/sample_data/validator-0.4.2 example input files/valid test data - row 1 headers.xlsx
+++ b/sample_data/validator-0.4.2 example input files/valid test data - row 1 headers.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -361,7 +361,7 @@
     <t xml:space="preserve">Bronchiole</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluid (seminal)</t>
+    <t xml:space="preserve">Tear</t>
   </si>
   <si>
     <t xml:space="preserve">Emergency room (ER)</t>
@@ -1358,6 +1358,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1445,15 +1446,15 @@
   </sheetPr>
   <dimension ref="A1:CL6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO18" activeCellId="0" sqref="AO18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.45"/>
@@ -1472,7 +1473,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="28.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="23.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="20.4"/>
@@ -1491,41 +1492,41 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="18.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="21.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="11.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="11.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="29.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="13.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="17.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="18.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="37.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="59.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="59.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="41.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="25.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="19.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="19.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="22.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="28.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="19.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="19.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="23.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="35.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="22.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="22.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="26.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="47.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="41.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="28.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="28.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="64.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="29.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="29.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="51.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="22.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="5.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="0" width="13.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="0" width="24.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="20.94"/>
